--- a/latihan praktikum.xlsx
+++ b/latihan praktikum.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\materi kursus\msexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA5BAD7-0187-45DA-99D4-254ADDF089C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812141D9-C447-48DF-8B4D-A2E9975EAB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2A3B7A6E-12D8-4076-AAFB-00D24156B2E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2A3B7A6E-12D8-4076-AAFB-00D24156B2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Latihan 1" sheetId="1" r:id="rId1"/>
     <sheet name="Latihan 2" sheetId="2" r:id="rId2"/>
     <sheet name="Latihan 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Latihan 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Latihan 5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Latihan 2'!$C$5:$C$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Latihan 2'!$D$5:$D$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Latihan 2'!$C$5:$C$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Latihan 2'!$D$5:$D$14</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Data Nilai Siswa</t>
   </si>
@@ -132,13 +128,181 @@
   </si>
   <si>
     <t>Total Nilai Akhir</t>
+  </si>
+  <si>
+    <t>PT. KARYA KITA</t>
+  </si>
+  <si>
+    <t>DAFTAR GAJI PEGAWAI PERIODE JANUARI 2009</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NAMA PEGAWAI</t>
+  </si>
+  <si>
+    <t>GAJI POKOK</t>
+  </si>
+  <si>
+    <t>TUNJANGAN</t>
+  </si>
+  <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>GAJI BERSIH</t>
+  </si>
+  <si>
+    <t>Ruslani</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
+  </si>
+  <si>
+    <t>Santoso</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>Ahmad Karyadi</t>
+  </si>
+  <si>
+    <t>Jumanto</t>
+  </si>
+  <si>
+    <t>Hasan Albana</t>
+  </si>
+  <si>
+    <t>Bian Albi</t>
+  </si>
+  <si>
+    <t>Takriman</t>
+  </si>
+  <si>
+    <t>Barhaza</t>
+  </si>
+  <si>
+    <t>TOTAL GAJI</t>
+  </si>
+  <si>
+    <t>GAJI TERTINGGI</t>
+  </si>
+  <si>
+    <t>GAJI TERENDAH</t>
+  </si>
+  <si>
+    <t>RATA-RATA GAJI</t>
+  </si>
+  <si>
+    <t>Setelah selesai simpanlah dokumen dengan nama file- Tabel 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMBAGA PENDIDIKAN KOMPUTER </t>
+  </si>
+  <si>
+    <t>JS@COMP.COURSE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jl. Raya Kantor Kelurahan Pengasinan No. 08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0251 - 8612 825</t>
+    </r>
+  </si>
+  <si>
+    <t>DAFTAR HASIL UJIAN KOMPUTER SISWA PERIODE NOP - DES 2008</t>
+  </si>
+  <si>
+    <t>Nama Siswa</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>Nilai               Rata-Rata</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Dewi Mentari</t>
+  </si>
+  <si>
+    <t>Mulyadi</t>
+  </si>
+  <si>
+    <t>Ruslih</t>
+  </si>
+  <si>
+    <t>Norma Oklana</t>
+  </si>
+  <si>
+    <t>Dwi Sulistyo</t>
+  </si>
+  <si>
+    <t>Atin Supriyatna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman </t>
+  </si>
+  <si>
+    <t>Asmawi</t>
+  </si>
+  <si>
+    <t>Dion Ariesta</t>
+  </si>
+  <si>
+    <t>Azaz Furqon</t>
+  </si>
+  <si>
+    <t>Nilai Tertinggi</t>
+  </si>
+  <si>
+    <t>Nilai Terendah</t>
+  </si>
+  <si>
+    <t>Jumlah Peserta Lulus</t>
+  </si>
+  <si>
+    <t>Jumlah Peserta Tidak Lulus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +340,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calisto MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calisto MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -245,18 +478,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,8 +604,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,11 +625,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,6 +1053,701 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72368</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15218</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>294837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="AG00011_">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E67504-B87A-464E-9839-051484CC59FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="72368" y="898196"/>
+          <a:ext cx="552450" cy="625366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876A4FBA-AB8B-4ED9-AC16-563C010FE0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5791200" y="152400"/>
+          <a:ext cx="1381125" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>KETENTUAN:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5562600" cy="1188146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16209174-8299-F78E-D2B9-C8D038119089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="666750"/>
+          <a:ext cx="5562600" cy="1188146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tunjangan diberikan sebesar 25% dari Gaji Pokok</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PPH dibebankan sebesar 5% dari Gaji Pokok</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gaji Bersih adalah Gaji Pokok + Tunjangan - PPH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Carilah Total Gaji, Gaji Tertinggi, Gaji Terendah, dan Rata-rata Gaji dengan fungsi statistik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="AG00160_">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7729ECAF-03DE-48DF-8395-CE6C98EFE2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="704850"/>
+          <a:ext cx="523875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEAB928-4363-4FA3-8FAD-009C5A21F1EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723900" y="5581650"/>
+          <a:ext cx="1049849" cy="322882"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>KETENTUAN:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9740102" cy="1407308"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76891C93-67FC-2003-9295-137BE6E2B7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="5943600"/>
+          <a:ext cx="9740102" cy="1407308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.  Carilah nilai rata-rata dengan cara menambahkan nilai (Windows + Word + Excel)/3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Atau menggunakan fungsi =Average(range)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.  Formatlah angka nilai rata-rata dalam bentuk tanpa desimal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.  Isilah keterangan dengan menggunakan fungsi Logika (=IF) dengan ketentuan:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.  Jika Nilai rata-rata &gt;=70 maka dinyatakan "Lulus"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     b.  Jika Nilai rata-rata &lt;70 maka dinyatakan "Tidak Lulus"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.  Urutkan data berdasarkan nama siswa, secara Ascending</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -937,269 +2078,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7">
         <v>0.75</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>0.25</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>65</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>87</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>70</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>65</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>80</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>90</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>56</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>55</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>90</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>78</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>54</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>65</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>65</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>89</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>89</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>90</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>90</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>80</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1221,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCA6C87-B81A-4574-8BC3-3849B5EC5075}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -1230,4 +2371,750 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99AA58A-4C30-4133-ACE6-4D6C9462D857}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2500000</v>
+      </c>
+      <c r="D5" s="23">
+        <f>25%*C5</f>
+        <v>625000</v>
+      </c>
+      <c r="E5" s="24">
+        <f>5%*C5</f>
+        <v>125000</v>
+      </c>
+      <c r="F5" s="24">
+        <f>C5+D5-E5</f>
+        <v>3000000</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" ref="D6:D14" si="0">25%*C6</f>
+        <v>500000</v>
+      </c>
+      <c r="E6" s="24">
+        <f>5%*C6</f>
+        <v>100000</v>
+      </c>
+      <c r="F6" s="28">
+        <f>C6+D6-E6</f>
+        <v>2400000</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1800000</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" ref="E7:E14" si="1">5%*C7</f>
+        <v>90000</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" ref="F7:F14" si="2">C7+D7-E7</f>
+        <v>2160000</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1700000</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="0"/>
+        <v>425000</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" si="2"/>
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1500000</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
+        <v>375000</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="2"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>6</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1200000</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="2"/>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="27">
+        <v>950000</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>237500</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="1"/>
+        <v>47500</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="2"/>
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="27">
+        <v>900000</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>10</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="30">
+        <v>800000</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="2"/>
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32">
+        <f>SUM(F5:F14)</f>
+        <v>17220000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34">
+        <f>MAX(F5:F14)</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34">
+        <f>MIN(F5:F14)</f>
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36">
+        <f>AVERAGE(F5:F14)</f>
+        <v>1722000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939BAAA-1FE7-48DC-A1B4-5D5980B21D1F}">
+  <dimension ref="B3:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>111</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="13">
+        <v>75</v>
+      </c>
+      <c r="E12" s="13">
+        <v>80</v>
+      </c>
+      <c r="F12" s="13">
+        <v>78</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>112</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13">
+        <v>75</v>
+      </c>
+      <c r="E13" s="13">
+        <v>85</v>
+      </c>
+      <c r="F13" s="13">
+        <v>77</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>113</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13">
+        <v>70</v>
+      </c>
+      <c r="E14" s="13">
+        <v>70</v>
+      </c>
+      <c r="F14" s="13">
+        <v>70</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>114</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="13">
+        <v>70</v>
+      </c>
+      <c r="E15" s="13">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13">
+        <v>60</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>115</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="13">
+        <v>75</v>
+      </c>
+      <c r="E16" s="13">
+        <v>80</v>
+      </c>
+      <c r="F16" s="13">
+        <v>70</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>116</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="13">
+        <v>75</v>
+      </c>
+      <c r="E17" s="13">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13">
+        <v>75</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>117</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="13">
+        <v>90</v>
+      </c>
+      <c r="E18" s="13">
+        <v>90</v>
+      </c>
+      <c r="F18" s="13">
+        <v>85</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>118</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13">
+        <v>75</v>
+      </c>
+      <c r="E19" s="13">
+        <v>75</v>
+      </c>
+      <c r="F19" s="13">
+        <v>70</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>119</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="13">
+        <v>70</v>
+      </c>
+      <c r="E20" s="13">
+        <v>70</v>
+      </c>
+      <c r="F20" s="13">
+        <v>70</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>120</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="13">
+        <v>90</v>
+      </c>
+      <c r="E21" s="13">
+        <v>90</v>
+      </c>
+      <c r="F21" s="13">
+        <v>85</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>